--- a/DATA_goal/Junction_Flooding_409.xlsx
+++ b/DATA_goal/Junction_Flooding_409.xlsx
@@ -863,103 +863,103 @@
         <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.95</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.58</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.14</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.18</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.75</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.66</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.17</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.62</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.01</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>5.51</v>
+        <v>55.06</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.92</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_409.xlsx
+++ b/DATA_goal/Junction_Flooding_409.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45090.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45090.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>22.129</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>16.792</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>48.665</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>39.798</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>17.038</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>63.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>27.051</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.642</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>18.152</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>19.686</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>20.884</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>5.598</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>17.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>24.792</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>14.833</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.954</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>261.636</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>49.332</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>32.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>17.946</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.504</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>32.445</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>14.185</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.298</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>21.158</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>57.861</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>20.034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45090.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.83</v>
+        <v>13.126</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.17</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.291</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.49</v>
+        <v>28.985</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.95</v>
+        <v>23.621</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.02</v>
+        <v>10.054</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.58</v>
+        <v>43.646</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.18</v>
+        <v>16.086</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.39</v>
+        <v>7.628</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>10.779</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.4</v>
+        <v>11.728</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.09</v>
+        <v>12.439</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.06</v>
+        <v>3.342</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.34</v>
+        <v>10.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.31</v>
+        <v>14.751</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.02</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.66</v>
+        <v>0.137</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.598</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.91</v>
+        <v>152.92</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.68</v>
+        <v>29.525</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.27</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.18</v>
+        <v>19.612</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.5</v>
+        <v>10.728</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.544</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.62</v>
+        <v>21.178</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.89</v>
+        <v>8.462</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.64</v>
+        <v>8.023</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.64</v>
+        <v>9.538</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.92</v>
+        <v>12.617</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.18</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.75</v>
+        <v>39.701</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.37</v>
+        <v>5.781</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.71</v>
+        <v>11.916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45090.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.87</v>
+        <v>20.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.66</v>
+        <v>15.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.05</v>
+        <v>44.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.57</v>
+        <v>36.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.56</v>
+        <v>15.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.65</v>
+        <v>62.28</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.6</v>
+        <v>24.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.76</v>
+        <v>11.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.17</v>
+        <v>16.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.63</v>
+        <v>18.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.62</v>
+        <v>19.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.21</v>
+        <v>5.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.13</v>
+        <v>16.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.31</v>
+        <v>22.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.01</v>
+        <v>13.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.06</v>
+        <v>238.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.72</v>
+        <v>45.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.99</v>
+        <v>14.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.62</v>
+        <v>30.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.76</v>
+        <v>16.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.54</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.82</v>
+        <v>30.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.92</v>
+        <v>13.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.93</v>
+        <v>11.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.27</v>
+        <v>14.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.26</v>
+        <v>19.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.32</v>
+        <v>56.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.03</v>
+        <v>8.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.76000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.43</v>
+        <v>18.48</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_409.xlsx
+++ b/DATA_goal/Junction_Flooding_409.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45090.50694444445</v>
+        <v>44781.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>6.427</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.211</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>14.561</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>11.533</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.486</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>15.002</v>
+        <v>0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.211</v>
+        <v>0</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.579</v>
+        <v>0</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.239</v>
+        <v>0</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>6.747</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.607</v>
+        <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>5.615</v>
+        <v>0</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.139</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>4.876</v>
+        <v>0</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.271</v>
+        <v>0</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.709</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>78.413</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>15.366</v>
+        <v>0</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.184</v>
+        <v>0</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>9.362</v>
+        <v>0</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.286</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.958</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>8.106999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.01</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.031</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.902</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>7.612</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.257</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>12.304</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.802</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45090.51388888889</v>
+        <v>44781.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.129</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.792</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.552</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>48.665</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.798</v>
+        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.038</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>63.85</v>
+        <v>0</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.051</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.642</v>
+        <v>0</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.152</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>19.686</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.884</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.598</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.647</v>
+        <v>0</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>24.792</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.833</v>
+        <v>0</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.245</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.954</v>
+        <v>0</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.636</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.332</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.29</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>32.87</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.946</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.504</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>32.445</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.185</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.298</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.903</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.158</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.647</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>57.861</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.675000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45090.52083333334</v>
+        <v>44781.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.126</v>
+        <v>0.83</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.967000000000001</v>
+        <v>2.165</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.291</v>
+        <v>0.337</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.985</v>
+        <v>2.488</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.621</v>
+        <v>0.946</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.054</v>
+        <v>0.019</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.646</v>
+        <v>1.575</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>16.086</v>
+        <v>2.181</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.628</v>
+        <v>2.385</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.779</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.728</v>
+        <v>1.399</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.439</v>
+        <v>1.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.342</v>
+        <v>0.062</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.504</v>
+        <v>1.34</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.751</v>
+        <v>2.312</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.877000000000001</v>
+        <v>2.024</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.137</v>
+        <v>1.661</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.598</v>
+        <v>0.449</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>152.92</v>
+        <v>7.911</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>29.525</v>
+        <v>1.682</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.696999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.612</v>
+        <v>2.183</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.728</v>
+        <v>0.496</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.544</v>
+        <v>0.143</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>21.178</v>
+        <v>0.618</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.462</v>
+        <v>1.894</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.023</v>
+        <v>0.641</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>9.538</v>
+        <v>0.637</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.617</v>
+        <v>1.917</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.435</v>
+        <v>1.179</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.701</v>
+        <v>1.754</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.781</v>
+        <v>0.368</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.916</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45090.52777777778</v>
+        <v>44781.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.4</v>
+        <v>4.866</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.4</v>
+        <v>4.663</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.139</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>44.74</v>
+        <v>11.053</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.71</v>
+        <v>8.571</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.84</v>
+        <v>3.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>62.28</v>
+        <v>11.655</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.86</v>
+        <v>6.601</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.49</v>
+        <v>3.76</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.66</v>
+        <v>4.173</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.02</v>
+        <v>4.632</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.09</v>
+        <v>4.621</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.17</v>
+        <v>1.212</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.14</v>
+        <v>4.126</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.88</v>
+        <v>6.31</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.52</v>
+        <v>4.013</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.19</v>
+        <v>0.785</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.426</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>238.75</v>
+        <v>55.064</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>45.19</v>
+        <v>10.72</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.9</v>
+        <v>3.991</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>30.32</v>
+        <v>7.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.26</v>
+        <v>3.762</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.27</v>
+        <v>0.542</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>30.61</v>
+        <v>5.817</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.1</v>
+        <v>3.918</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.96</v>
+        <v>2.933</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.11</v>
+        <v>3.27</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.16</v>
+        <v>5.258</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.33</v>
+        <v>0.513</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>56.39</v>
+        <v>10.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.69</v>
+        <v>2.032</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>18.48</v>
+        <v>4.458</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>66.76000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>13.21</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>5.43</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_409.xlsx
+++ b/DATA_goal/Junction_Flooding_409.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44781.50694444445</v>
+        <v>45090.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0</v>
+        <v>6.427</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0</v>
+        <v>5.211</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>14.561</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0</v>
+        <v>11.533</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>4.486</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0</v>
+        <v>15.002</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0</v>
+        <v>8.211</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>5.579</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0</v>
+        <v>6.239</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0</v>
+        <v>6.747</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0</v>
+        <v>1.607</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0</v>
+        <v>5.615</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0</v>
+        <v>7.139</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>4.876</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>0.271</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.709</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0</v>
+        <v>78.413</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0</v>
+        <v>15.366</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0</v>
+        <v>5.184</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0</v>
+        <v>9.362</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0</v>
+        <v>6.286</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0</v>
+        <v>0.958</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0</v>
+        <v>8.106999999999999</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0</v>
+        <v>5.031</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0</v>
+        <v>6.902</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>7.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>1.257</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0</v>
+        <v>12.304</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0</v>
+        <v>3.802</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0</v>
+        <v>5.737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44781.51388888889</v>
+        <v>45090.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0</v>
+        <v>22.129</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0</v>
+        <v>16.792</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0</v>
+        <v>0.552</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>48.665</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0</v>
+        <v>39.798</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0</v>
+        <v>17.038</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0</v>
+        <v>63.85</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0</v>
+        <v>27.051</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0</v>
+        <v>12.642</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0</v>
+        <v>18.152</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0</v>
+        <v>19.686</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0</v>
+        <v>20.884</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0</v>
+        <v>5.598</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0</v>
+        <v>17.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0</v>
+        <v>24.792</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0</v>
+        <v>14.833</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.245</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0</v>
+        <v>0.954</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0</v>
+        <v>261.636</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0</v>
+        <v>49.332</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0</v>
+        <v>16.29</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0</v>
+        <v>32.87</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0</v>
+        <v>17.946</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0</v>
+        <v>2.504</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0</v>
+        <v>32.445</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0</v>
+        <v>14.185</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0</v>
+        <v>13.298</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0</v>
+        <v>15.903</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0</v>
+        <v>21.158</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.647</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0</v>
+        <v>57.861</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0</v>
+        <v>9.675000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0</v>
+        <v>20.034</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44781.52083333334</v>
+        <v>45090.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.83</v>
+        <v>13.126</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.165</v>
+        <v>9.967000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.337</v>
+        <v>0.291</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.488</v>
+        <v>28.985</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.946</v>
+        <v>23.621</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.019</v>
+        <v>10.054</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.575</v>
+        <v>43.646</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.181</v>
+        <v>16.086</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.385</v>
+        <v>7.628</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>10.779</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.399</v>
+        <v>11.728</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.09</v>
+        <v>12.439</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.062</v>
+        <v>3.342</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.34</v>
+        <v>10.504</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.312</v>
+        <v>14.751</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.024</v>
+        <v>8.877000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.661</v>
+        <v>0.137</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.449</v>
+        <v>0.598</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>7.911</v>
+        <v>152.92</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.682</v>
+        <v>29.525</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.27</v>
+        <v>9.696999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.183</v>
+        <v>19.612</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.496</v>
+        <v>10.728</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.143</v>
+        <v>1.544</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.618</v>
+        <v>21.178</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.894</v>
+        <v>8.462</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.641</v>
+        <v>8.023</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.637</v>
+        <v>9.538</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.917</v>
+        <v>12.617</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>1.179</v>
+        <v>0.435</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.754</v>
+        <v>39.701</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.368</v>
+        <v>5.781</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.708</v>
+        <v>11.916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44781.52777777778</v>
+        <v>45090.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.866</v>
+        <v>20.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.663</v>
+        <v>15.4</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.139</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.053</v>
+        <v>44.74</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.571</v>
+        <v>36.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.56</v>
+        <v>15.84</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>11.655</v>
+        <v>62.28</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.601</v>
+        <v>24.86</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.76</v>
+        <v>11.49</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.173</v>
+        <v>16.66</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.632</v>
+        <v>18.02</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.621</v>
+        <v>19.09</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.212</v>
+        <v>5.17</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.126</v>
+        <v>16.14</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.31</v>
+        <v>22.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.013</v>
+        <v>13.52</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.785</v>
+        <v>0.19</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.426</v>
+        <v>0.76</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.064</v>
+        <v>238.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.72</v>
+        <v>45.19</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.991</v>
+        <v>14.9</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.62</v>
+        <v>30.32</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.762</v>
+        <v>16.26</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.542</v>
+        <v>2.27</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.817</v>
+        <v>30.61</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.918</v>
+        <v>13.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.933</v>
+        <v>11.96</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.27</v>
+        <v>14.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.258</v>
+        <v>19.16</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.513</v>
+        <v>0.33</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>10.32</v>
+        <v>56.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.032</v>
+        <v>8.69</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.458</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.93</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>10.6</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>66.76000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>13.21</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.64</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>6.04</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.43</v>
+        <v>18.48</v>
       </c>
     </row>
   </sheetData>
